--- a/data sheets for fieldwork/blank_intertidal_data_sheet_v1.xlsx
+++ b/data sheets for fieldwork/blank_intertidal_data_sheet_v1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jebyrnes/Library/CloudStorage/GoogleDrive-jarrett.byrnes@gmail.com/.shortcut-targets-by-id/1uNfJ83WmlmCErHo4iUjWr1UYx8ZEmsih/Macroalgal EOV Data Processing docs/SOP_Visual/data_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jebyrnes/Library/CloudStorage/GoogleDrive-jarrett.byrnes@gmail.com/.shortcut-targets-by-id/1uNfJ83WmlmCErHo4iUjWr1UYx8ZEmsih/Macroalgal EOV Data Processing docs/SOP_Visual/goos_data_sheets_and_entry_forms/data sheets for fieldwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCAC328-5B4D-2D4F-BDCD-5B21F42CD5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BE3283-789D-5848-82C5-DB0A75EFCB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>Site:___________________________Quad:_________________________________________________</t>
   </si>
@@ -210,409 +210,19 @@
     <t>RED ALGAE</t>
   </si>
   <si>
-    <t>Fucus sp. (you just cannot tell)</t>
-  </si>
-  <si>
-    <t>FU</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ahnfeltia plicata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (wire weed, steel wool)</t>
-    </r>
-  </si>
-  <si>
-    <t>AHPL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Fucus vesiculosus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (air bladders within blade)</t>
-    </r>
-  </si>
-  <si>
-    <t>FUVE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Chondrus crispus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (flattened blades, blue iridescence in water, blade tips fan out)</t>
-    </r>
-  </si>
-  <si>
-    <t>CHCR</t>
-  </si>
-  <si>
     <t>Substrate Types:</t>
   </si>
   <si>
     <t>Grain size:</t>
   </si>
   <si>
-    <t>Fucus spiralis (heart-shaped receptacles)</t>
-  </si>
-  <si>
-    <t>FUSP</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Fucus distichus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (pointed receptacles)</t>
-    </r>
-  </si>
-  <si>
-    <t>FUDI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Clathromorphum circumscriptum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (pink crust, white margin, few bumps)</t>
-    </r>
-  </si>
-  <si>
-    <t>CLCI</t>
-  </si>
-  <si>
     <t>&gt;255mm</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ascophyllum nodosum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (slender rockweed)</t>
-    </r>
-  </si>
-  <si>
-    <t>ASNO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Colpomenia peregrina</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (sea grape, hollow)</t>
-    </r>
-  </si>
-  <si>
-    <t>COPE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Corallina officinalis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (calcified, branching)</t>
-    </r>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Leathesia marina</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (sea potato, solid)</t>
-    </r>
-  </si>
-  <si>
-    <t>LEMA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cystoclonium purpureum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (large and bushy)</t>
-    </r>
-  </si>
-  <si>
-    <t>CYPU</t>
-  </si>
-  <si>
-    <t>Saccharina latissima</t>
-  </si>
-  <si>
-    <t>SL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF202124"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Gracilaria tikvahiae </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202124"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(thick small tubes)</t>
-    </r>
-  </si>
-  <si>
-    <t>GRTI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Juvenile </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Saccharina latissima</t>
-    </r>
-  </si>
-  <si>
-    <t>SLJ</t>
-  </si>
-  <si>
-    <t>Gratelopia turuturu (red saccharina-like)</t>
-  </si>
-  <si>
-    <t>GRTU</t>
   </si>
   <si>
     <t>Mud</t>
   </si>
   <si>
-    <t>Laminaria digitata</t>
-  </si>
-  <si>
-    <t>LADI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hildenbrandia rubra</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (dark red uncalcified crust)</t>
-    </r>
-  </si>
-  <si>
-    <t>HIRU</t>
-  </si>
-  <si>
     <t>GREEN ALGAE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mastocarpus stellatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (stipe generally curled, may have bumps)</t>
-    </r>
-  </si>
-  <si>
-    <t>MAST</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Chaetomorpha linum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (filament., unbranched)</t>
-    </r>
-  </si>
-  <si>
-    <t>CHLI</t>
   </si>
   <si>
     <t>Relief Types:</t>
@@ -621,174 +231,16 @@
     <t>Description:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Codium fragile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (spongy, green rope)</t>
-    </r>
-  </si>
-  <si>
-    <t>COF</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Palmaria palmata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (long, lobe-like blades)</t>
-    </r>
-  </si>
-  <si>
-    <t>PAPA</t>
-  </si>
-  <si>
     <t>Flat</t>
   </si>
   <si>
     <t>Without any features</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ulva intestinalis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Enteromorpha</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, tube </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ulva</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>ULIN</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Phymatolithon lenormandii</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (pale pink crust, bumpy/pitted)</t>
-    </r>
-  </si>
-  <si>
-    <t>PHLE</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
     <t>&lt;1m change</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ulva lactuca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (green wax paper)</t>
-    </r>
-  </si>
-  <si>
-    <t>ULLA</t>
   </si>
   <si>
     <t>Moderate</t>
@@ -870,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -953,12 +405,6 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1462,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1503,20 +949,61 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -1526,58 +1013,11 @@
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1799,8 +1239,8 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30:U30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1810,123 +1250,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="69" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="69" t="s">
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="69" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="69" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
       <c r="AA2" s="2"/>
     </row>
     <row r="3" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="69" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="70" t="s">
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
       <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1939,14 +1379,14 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2057,7 +1497,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="11"/>
-      <c r="AA6" s="46" t="s">
+      <c r="AA6" s="71" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2088,7 +1528,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="16"/>
-      <c r="AA7" s="47"/>
+      <c r="AA7" s="72"/>
     </row>
     <row r="8" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
@@ -2117,7 +1557,7 @@
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="17"/>
-      <c r="AA8" s="47"/>
+      <c r="AA8" s="72"/>
     </row>
     <row r="9" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18"/>
@@ -2146,7 +1586,7 @@
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="21"/>
-      <c r="AA9" s="47"/>
+      <c r="AA9" s="72"/>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
@@ -2175,7 +1615,7 @@
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="17"/>
-      <c r="AA10" s="47"/>
+      <c r="AA10" s="72"/>
     </row>
     <row r="11" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
@@ -2204,7 +1644,7 @@
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="21"/>
-      <c r="AA11" s="47"/>
+      <c r="AA11" s="72"/>
     </row>
     <row r="12" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
@@ -2233,7 +1673,7 @@
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="17"/>
-      <c r="AA12" s="47"/>
+      <c r="AA12" s="72"/>
     </row>
     <row r="13" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
@@ -2262,7 +1702,7 @@
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="21"/>
-      <c r="AA13" s="47"/>
+      <c r="AA13" s="72"/>
     </row>
     <row r="14" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
@@ -2291,7 +1731,7 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="17"/>
-      <c r="AA14" s="47"/>
+      <c r="AA14" s="72"/>
     </row>
     <row r="15" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
@@ -2320,7 +1760,7 @@
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="21"/>
-      <c r="AA15" s="47"/>
+      <c r="AA15" s="72"/>
     </row>
     <row r="16" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22"/>
@@ -2349,7 +1789,7 @@
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="17"/>
-      <c r="AA16" s="47"/>
+      <c r="AA16" s="72"/>
     </row>
     <row r="17" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20"/>
@@ -2378,7 +1818,7 @@
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="21"/>
-      <c r="AA17" s="47"/>
+      <c r="AA17" s="72"/>
     </row>
     <row r="18" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="23"/>
@@ -2407,7 +1847,7 @@
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="17"/>
-      <c r="AA18" s="47"/>
+      <c r="AA18" s="72"/>
     </row>
     <row r="19" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="24"/>
@@ -2436,7 +1876,7 @@
       <c r="X19" s="25"/>
       <c r="Y19" s="25"/>
       <c r="Z19" s="26"/>
-      <c r="AA19" s="48"/>
+      <c r="AA19" s="73"/>
     </row>
     <row r="20" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="27"/>
@@ -2465,7 +1905,7 @@
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
       <c r="Z20" s="11"/>
-      <c r="AA20" s="49" t="s">
+      <c r="AA20" s="74" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2496,7 +1936,7 @@
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="21"/>
-      <c r="AA21" s="47"/>
+      <c r="AA21" s="72"/>
     </row>
     <row r="22" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="23"/>
@@ -2525,7 +1965,7 @@
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
       <c r="Z22" s="17"/>
-      <c r="AA22" s="47"/>
+      <c r="AA22" s="72"/>
     </row>
     <row r="23" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28"/>
@@ -2554,7 +1994,7 @@
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="21"/>
-      <c r="AA23" s="47"/>
+      <c r="AA23" s="72"/>
     </row>
     <row r="24" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="29"/>
@@ -2583,528 +2023,355 @@
       <c r="X24" s="30"/>
       <c r="Y24" s="30"/>
       <c r="Z24" s="31"/>
-      <c r="AA24" s="50"/>
+      <c r="AA24" s="75"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="32" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>41</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="L25" s="33" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="38" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="U25" s="34"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="53"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="76"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="35" t="s">
-        <v>42</v>
-      </c>
+      <c r="A26" s="35"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="J26" s="36"/>
+      <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="34" t="s">
-        <v>86</v>
+      <c r="P26" s="34"/>
+      <c r="R26" s="55" t="s">
+        <v>42</v>
       </c>
-      <c r="R26" s="72" t="s">
-        <v>50</v>
+      <c r="S26" s="56"/>
+      <c r="T26" s="57" t="s">
+        <v>43</v>
       </c>
-      <c r="S26" s="73"/>
-      <c r="T26" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="U26" s="75"/>
+      <c r="U26" s="58"/>
       <c r="V26" s="34"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="40"/>
-      <c r="AA26" s="40"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
     </row>
     <row r="27" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A27" s="40"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="43"/>
+      <c r="J27" s="41"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="34" t="s">
-        <v>90</v>
+      <c r="P27" s="34"/>
+      <c r="R27" s="44" t="s">
+        <v>45</v>
       </c>
-      <c r="R27" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="S27" s="77"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="79"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="68"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
     </row>
     <row r="28" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="L28" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="A28" s="42"/>
+      <c r="E28" s="34"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="34" t="s">
-        <v>96</v>
+      <c r="P28" s="34"/>
+      <c r="R28" s="44" t="s">
+        <v>61</v>
       </c>
-      <c r="R28" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="S28" s="77"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="81"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
+      <c r="U28" s="45"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
     </row>
     <row r="29" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="A29" s="40"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="43"/>
+      <c r="J29" s="41"/>
+      <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="34" t="s">
-        <v>102</v>
+      <c r="P29" s="34"/>
+      <c r="R29" s="44" t="s">
+        <v>62</v>
       </c>
-      <c r="R29" s="76" t="s">
-        <v>112</v>
+      <c r="T29" s="54" t="s">
+        <v>71</v>
       </c>
-      <c r="S29" s="77"/>
-      <c r="T29" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="U29" s="79"/>
-      <c r="Z29" s="40"/>
-      <c r="AA29" s="40"/>
+      <c r="U29" s="68"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="34" t="s">
-        <v>60</v>
+      <c r="E30" s="34"/>
+      <c r="R30" s="44" t="s">
+        <v>63</v>
       </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="R30" s="76" t="s">
-        <v>113</v>
+      <c r="T30" s="54" t="s">
+        <v>70</v>
       </c>
-      <c r="S30" s="77"/>
-      <c r="T30" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="U30" s="79"/>
-      <c r="Z30" s="40"/>
-      <c r="AA30" s="40"/>
+      <c r="U30" s="68"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
     </row>
     <row r="31" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="34" t="s">
+      <c r="E31" s="34"/>
+      <c r="F31" s="2"/>
+      <c r="J31" s="34"/>
+      <c r="R31" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="R31" s="76" t="s">
-        <v>114</v>
+      <c r="T31" s="54" t="s">
+        <v>69</v>
       </c>
-      <c r="S31" s="77"/>
-      <c r="T31" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="U31" s="79"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="40"/>
+      <c r="U31" s="68"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="2"/>
+      <c r="R32" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="T32" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="R32" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="S32" s="77"/>
-      <c r="T32" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="U32" s="79"/>
-      <c r="Z32" s="40"/>
-      <c r="AA32" s="40"/>
+      <c r="U32" s="68"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>71</v>
-      </c>
+      <c r="A33" s="39"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="37"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="2" t="s">
-        <v>72</v>
+      <c r="J33" s="2"/>
+      <c r="R33" s="44" t="s">
+        <v>66</v>
       </c>
-      <c r="R33" s="76" t="s">
-        <v>116</v>
+      <c r="T33" s="54" t="s">
+        <v>44</v>
       </c>
-      <c r="T33" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="U33" s="79"/>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="40"/>
+      <c r="U33" s="68"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="34" t="s">
-        <v>74</v>
+      <c r="E34" s="34"/>
+      <c r="F34" s="35"/>
+      <c r="J34" s="2"/>
+      <c r="R34" s="46" t="s">
+        <v>67</v>
       </c>
-      <c r="F34" s="45" t="s">
-        <v>75</v>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="48"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+    </row>
+    <row r="35" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="39"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="40"/>
+      <c r="J35" s="34"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+    </row>
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F36" s="43"/>
+      <c r="J36" s="41"/>
+      <c r="R36" s="69" t="s">
+        <v>47</v>
       </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="2" t="s">
-        <v>76</v>
+      <c r="S36" s="61"/>
+      <c r="T36" s="70" t="s">
+        <v>48</v>
       </c>
-      <c r="R34" s="82" t="s">
-        <v>117</v>
+      <c r="U36" s="62"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+    </row>
+    <row r="37" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R37" s="67" t="s">
+        <v>49</v>
       </c>
-      <c r="S34" s="83"/>
-      <c r="T34" s="83"/>
-      <c r="U34" s="84"/>
-      <c r="Z34" s="40"/>
-      <c r="AA34" s="40"/>
-    </row>
-    <row r="35" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="39" t="s">
-        <v>78</v>
+      <c r="S37" s="50"/>
+      <c r="T37" s="54" t="s">
+        <v>50</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="34" t="s">
-        <v>79</v>
+      <c r="U37" s="64"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="2"/>
+      <c r="J38" s="34"/>
+      <c r="R38" s="67" t="s">
+        <v>51</v>
       </c>
-      <c r="F35" s="41" t="s">
-        <v>80</v>
+      <c r="S38" s="50"/>
+      <c r="T38" s="54" t="s">
+        <v>52</v>
       </c>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="34" t="s">
-        <v>81</v>
+      <c r="U38" s="64"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+    </row>
+    <row r="39" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="43"/>
+      <c r="J39" s="41"/>
+      <c r="R39" s="67" t="s">
+        <v>53</v>
       </c>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="71"/>
-      <c r="Z35" s="40"/>
-      <c r="AA35" s="40"/>
-    </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F36" s="63" t="s">
-        <v>83</v>
+      <c r="S39" s="50"/>
+      <c r="T39" s="54" t="s">
+        <v>54</v>
       </c>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="42" t="s">
-        <v>84</v>
+      <c r="U39" s="64"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R40" s="67" t="s">
+        <v>56</v>
       </c>
-      <c r="R36" s="58" t="s">
-        <v>87</v>
+      <c r="S40" s="50"/>
+      <c r="T40" s="54" t="s">
+        <v>57</v>
       </c>
-      <c r="S36" s="59"/>
-      <c r="T36" s="60" t="s">
-        <v>88</v>
+      <c r="U40" s="64"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
+    </row>
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="60" t="s">
+        <v>55</v>
       </c>
-      <c r="U36" s="61"/>
-      <c r="Z36" s="40"/>
-      <c r="AA36" s="40"/>
-    </row>
-    <row r="37" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="R37" s="43" t="s">
-        <v>93</v>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="62"/>
+      <c r="R41" s="77" t="s">
+        <v>58</v>
       </c>
-      <c r="S37" s="40"/>
-      <c r="T37" s="51" t="s">
-        <v>94</v>
+      <c r="S41" s="53"/>
+      <c r="T41" s="78" t="s">
+        <v>59</v>
       </c>
-      <c r="U37" s="52"/>
-      <c r="Z37" s="40"/>
-      <c r="AA37" s="40"/>
-    </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F38" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="R38" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="S38" s="40"/>
-      <c r="T38" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="U38" s="52"/>
-      <c r="Z38" s="40"/>
-      <c r="AA38" s="40"/>
-    </row>
-    <row r="39" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F39" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="R39" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="S39" s="40"/>
-      <c r="T39" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="U39" s="52"/>
-      <c r="Z39" s="40"/>
-      <c r="AA39" s="40"/>
-    </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="R40" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="S40" s="40"/>
-      <c r="T40" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="U40" s="52"/>
-      <c r="Z40" s="40"/>
-      <c r="AA40" s="40"/>
-    </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="61"/>
-      <c r="R41" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="S41" s="55"/>
-      <c r="T41" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="U41" s="57"/>
-      <c r="Z41" s="40"/>
-      <c r="AA41" s="40"/>
+      <c r="U41" s="66"/>
+      <c r="Z41" s="50"/>
+      <c r="AA41" s="50"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="65"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="52"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="64"/>
       <c r="T42" s="34"/>
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="40"/>
+      <c r="Z42" s="50"/>
+      <c r="AA42" s="50"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="66"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="55"/>
-      <c r="O43" s="57"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="66"/>
       <c r="T43" s="34"/>
-      <c r="V43" s="51"/>
-      <c r="W43" s="40"/>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="40"/>
-      <c r="Z43" s="40"/>
-      <c r="AA43" s="40"/>
+      <c r="V43" s="54"/>
+      <c r="W43" s="50"/>
+      <c r="X43" s="50"/>
+      <c r="Y43" s="50"/>
+      <c r="Z43" s="50"/>
+      <c r="AA43" s="50"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
@@ -30856,7 +30123,36 @@
       <c r="AA1000" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="38">
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="AA6:AA19"/>
+    <mergeCell ref="AA20:AA24"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="AA25:AA43"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="U4:Z4"/>
+    <mergeCell ref="Z25:Z43"/>
+    <mergeCell ref="A41:O43"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
     <mergeCell ref="K3:T3"/>
     <mergeCell ref="U3:Z3"/>
     <mergeCell ref="A1:J1"/>
@@ -30866,53 +30162,6 @@
     <mergeCell ref="K2:T2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="U2:Z2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="U4:Z4"/>
-    <mergeCell ref="Z25:Z43"/>
-    <mergeCell ref="F36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="A41:O43"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F29:I30"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="AA6:AA19"/>
-    <mergeCell ref="AA20:AA24"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="AA25:AA43"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="F27:I28"/>
-    <mergeCell ref="J27:J28"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.6" header="0" footer="0"/>
